--- a/nr-add-lipids/ig/observations-summary.xlsx
+++ b/nr-add-lipids/ig/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,54 @@
     <t>Method</t>
   </si>
   <si>
+    <t>mesures-fr-cholesterol-hdl</t>
+  </si>
+  <si>
+    <t>HDL Cholesterol</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#2085-9</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mesures-fr-cholesterol-ldl</t>
+  </si>
+  <si>
+    <t>LDL Cholesterol</t>
+  </si>
+  <si>
+    <t>LOINC#13457-7</t>
+  </si>
+  <si>
+    <t>mesures-fr-cholesterol-total</t>
+  </si>
+  <si>
+    <t>Cholestérol total</t>
+  </si>
+  <si>
+    <t>LOINC#35200-5</t>
+  </si>
+  <si>
+    <t>mesures-fr-cholesterol-triglycerides</t>
+  </si>
+  <si>
+    <t>Triglycerides</t>
+  </si>
+  <si>
+    <t>LOINC#35217-9</t>
+  </si>
+  <si>
     <t>mesures-fr-observation-bmi</t>
   </si>
   <si>
@@ -56,9 +104,6 @@
     <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#39156-5</t>
   </si>
   <si>
@@ -71,9 +116,6 @@
     <t>Quantityĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>mesures-fr-observation-body-temperature</t>
   </si>
   <si>
@@ -125,30 +167,6 @@
     <t>LOINC#8478-0</t>
   </si>
   <si>
-    <t>mesures-fr-observation-cholesterol-total</t>
-  </si>
-  <si>
-    <t>Cholestérol total</t>
-  </si>
-  <si>
-    <t>LOINC#35200-5</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-hdl</t>
-  </si>
-  <si>
-    <t>HDL Cholesterol</t>
-  </si>
-  <si>
-    <t>LOINC#2085-9</t>
-  </si>
-  <si>
     <t>mesures-fr-observation-heartrate</t>
   </si>
   <si>
@@ -174,15 +192,6 @@
   </si>
   <si>
     <t>null#9279-1</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-triglycerides</t>
-  </si>
-  <si>
-    <t>Triglycerides</t>
-  </si>
-  <si>
-    <t>LOINC#35217-9</t>
   </si>
   <si>
     <t>mesures-observation-glucose</t>
@@ -361,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -413,413 +422,413 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>22</v>
-      </c>
       <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="F4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>28</v>
-      </c>
       <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="F6" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -830,31 +839,31 @@
         <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -865,31 +874,31 @@
         <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -900,31 +909,31 @@
         <v>58</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -935,31 +944,31 @@
         <v>61</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>16</v>
-      </c>
       <c r="G17" t="s" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -970,31 +979,31 @@
         <v>64</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>65</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>32</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1005,31 +1014,31 @@
         <v>67</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>68</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1040,31 +1049,66 @@
         <v>70</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/nr-add-lipids/ig/observations-summary.xlsx
+++ b/nr-add-lipids/ig/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
   <si>
     <t>Profile</t>
   </si>
@@ -47,151 +47,154 @@
     <t>Method</t>
   </si>
   <si>
-    <t>mesures-fr-cholesterol-hdl</t>
-  </si>
-  <si>
-    <t>HDL Cholesterol</t>
+    <t>mesures-fr-observation-bmi</t>
+  </si>
+  <si>
+    <t>Indice de Masse Corporelle</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>null#39156-5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-body-temperature</t>
+  </si>
+  <si>
+    <t>Température</t>
+  </si>
+  <si>
+    <t>null#8310-5</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-body-weight</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-bodyheight</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-bp</t>
+  </si>
+  <si>
+    <t>Pression Artérielle</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-heartrate</t>
+  </si>
+  <si>
+    <t>Fréquence Cardiaque</t>
+  </si>
+  <si>
+    <t>null#8867-4</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-oxygen-sat</t>
+  </si>
+  <si>
+    <t>Saturation en Oxygène</t>
+  </si>
+  <si>
+    <t>null#2708-6</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-resp-rate</t>
+  </si>
+  <si>
+    <t>Fréquence respiratoire</t>
+  </si>
+  <si>
+    <t>null#9279-1</t>
+  </si>
+  <si>
+    <t>mesures-observation-cholesterol-hdl</t>
+  </si>
+  <si>
+    <t>Cholestérol HDL</t>
+  </si>
+  <si>
     <t>LOINC#2085-9</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>mesures-observation-cholesterol-ldl</t>
+  </si>
+  <si>
+    <t>Cholestérol LDL</t>
+  </si>
+  <si>
+    <t>LOINC#2089-1</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mesures-fr-cholesterol-ldl</t>
-  </si>
-  <si>
-    <t>LDL Cholesterol</t>
-  </si>
-  <si>
-    <t>LOINC#13457-7</t>
-  </si>
-  <si>
-    <t>mesures-fr-cholesterol-total</t>
+    <t>mesures-observation-cholesterol-total</t>
   </si>
   <si>
     <t>Cholestérol total</t>
   </si>
   <si>
-    <t>LOINC#35200-5</t>
-  </si>
-  <si>
-    <t>mesures-fr-cholesterol-triglycerides</t>
-  </si>
-  <si>
-    <t>Triglycerides</t>
-  </si>
-  <si>
-    <t>LOINC#35217-9</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-bmi</t>
-  </si>
-  <si>
-    <t>Indice de Masse Corporelle</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>null#39156-5</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-body-temperature</t>
-  </si>
-  <si>
-    <t>Température</t>
-  </si>
-  <si>
-    <t>null#8310-5</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-body-weight</t>
-  </si>
-  <si>
-    <t>Poids</t>
-  </si>
-  <si>
-    <t>null#29463-7</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-bodyheight</t>
-  </si>
-  <si>
-    <t>Taille</t>
-  </si>
-  <si>
-    <t>null#8302-2</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-bp</t>
-  </si>
-  <si>
-    <t>Pression Artérielle</t>
-  </si>
-  <si>
-    <t>null#85354-9</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8478-0</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-heartrate</t>
-  </si>
-  <si>
-    <t>Fréquence Cardiaque</t>
-  </si>
-  <si>
-    <t>null#8867-4</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-oxygen-sat</t>
-  </si>
-  <si>
-    <t>Saturation en Oxygène</t>
-  </si>
-  <si>
-    <t>null#2708-6</t>
-  </si>
-  <si>
-    <t>mesures-fr-observation-resp-rate</t>
-  </si>
-  <si>
-    <t>Fréquence respiratoire</t>
-  </si>
-  <si>
-    <t>null#9279-1</t>
+    <t>LOINC#2093-3</t>
+  </si>
+  <si>
+    <t>mesures-observation-cholesterol-trigly</t>
+  </si>
+  <si>
+    <t>Cholestérol triglycerides</t>
+  </si>
+  <si>
+    <t>LOINC#2571-8</t>
   </si>
   <si>
     <t>mesures-observation-glucose</t>
@@ -422,348 +425,348 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>44</v>
@@ -772,63 +775,63 @@
         <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -839,276 +842,276 @@
         <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/nr-add-lipids/ig/observations-summary.xlsx
+++ b/nr-add-lipids/ig/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>Profile</t>
   </si>
@@ -164,7 +164,7 @@
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>Quantity</t>
   </si>
   <si>
     <t>mesures-observation-cholesterol-ldl</t>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>LOINC#2089-1</t>
-  </si>
-  <si>
-    <t>Quantity</t>
   </si>
   <si>
     <t>mesures-observation-cholesterol-total</t>
@@ -857,7 +854,7 @@
         <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -871,19 +868,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -892,7 +889,7 @@
         <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>19</v>
@@ -906,19 +903,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -927,7 +924,7 @@
         <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -941,22 +938,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>32</v>
@@ -976,19 +973,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1011,19 +1008,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1046,19 +1043,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1081,19 +1078,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
